--- a/WS1.Bien ban cuoc hop (1).xlsx
+++ b/WS1.Bien ban cuoc hop (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A84B2D-9BE1-42C2-B48D-4899041F7855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DCC6F5-B72E-4098-AFF3-059A27BD4ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22530" yWindow="2910" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>chất lượng</t>
   </si>
@@ -152,6 +152,39 @@
   </si>
   <si>
     <t>Thắng làm là PO</t>
+  </si>
+  <si>
+    <t>9h00-9h15 ngày 17/9/2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Quân quay buổi họp, phân việc </t>
+  </si>
+  <si>
+    <t>Chung vẽ giao diện FIGMA</t>
+  </si>
+  <si>
+    <t>Vinh làm sơ đồ ERF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thắng làm User Story và Sprint Backlog </t>
+  </si>
+  <si>
+    <t>đang hơi chậm tiến độ</t>
+  </si>
+  <si>
+    <t>cân quy định giờ giấc hợp lí và tổ chức buổi họp thường xuyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xây dựng có tích cực </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nên xây dựng hơn chút </t>
+  </si>
+  <si>
+    <t>tích cực</t>
   </si>
 </sst>
 </file>
@@ -382,6 +415,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -390,12 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -855,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,27 +917,27 @@
       <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -938,12 +971,12 @@
       <c r="Q3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
@@ -983,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="Q4" s="21"/>
-      <c r="R4" s="16"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
@@ -1134,12 +1167,327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="50.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="2:18" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>